--- a/texts/処理定義書.xlsx
+++ b/texts/処理定義書.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonbi\OneDrive\ドキュメント\tech\4th\team_dev\texts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE0F58A-5A21-45EC-AD94-1A12BB8746C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467AA8BA-E96A-415D-BAF8-AB1EDFEB428F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{4F02A500-78F9-674E-9F23-63E79DB4A05D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{4F02A500-78F9-674E-9F23-63E79DB4A05D}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="3" r:id="rId1"/>
     <sheet name="一覧" sheetId="4" r:id="rId2"/>
-    <sheet name="処理定義書（ログイン機能）" sheetId="5" r:id="rId3"/>
+    <sheet name="処理定義書（ログインログアウト機能）" sheetId="5" r:id="rId3"/>
     <sheet name="処理定義書（商品登録機能）" sheetId="6" r:id="rId4"/>
     <sheet name="処理定義書（商品閲覧機能）" sheetId="7" r:id="rId5"/>
-    <sheet name="処理定義書（商品編集機能）" sheetId="8" r:id="rId6"/>
+    <sheet name="処理定義書（商品編集削除機能）" sheetId="8" r:id="rId6"/>
     <sheet name="処理定義書（注文登録機能）" sheetId="9" r:id="rId7"/>
     <sheet name="処理定義書（注文閲覧機能）" sheetId="10" r:id="rId8"/>
-    <sheet name="処理定義書（注文編集機能）" sheetId="11" r:id="rId9"/>
+    <sheet name="処理定義書（注文編集削除機能）" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="62">
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
@@ -104,10 +104,6 @@
     <rPh sb="0" eb="2">
       <t>ツウバn</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -238,16 +234,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品編集</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>注文登録</t>
     <rPh sb="0" eb="2">
       <t>チュウモン</t>
@@ -268,13 +254,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>注文編集</t>
-    <rPh sb="0" eb="4">
-      <t>チュウモンヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品登録</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -285,49 +264,181 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>注文編集</t>
+    <t>item_info</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stock_ifo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>order_info</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>order_id/order_quant</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stock_info</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stock_quant</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>item_id/item_name/item_img/price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ID発行処理</t>
+    <rPh sb="4" eb="6">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.1item_infoのカラム数を参照してitem_idを発行する</t>
+    <rPh sb="16" eb="17">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.入力処理</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.登録処理</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインログアウト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品編集削除</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文編集削除</t>
     <rPh sb="0" eb="2">
       <t>チュウモン</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>item_info</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>stock_ifo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>order_info</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>order_id/order_quant</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>item_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>stock_info</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>stock_quant</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>item_id/item_name/item_img/price</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文編集削除</t>
+    <rPh sb="0" eb="4">
+      <t>チュウモンヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5.ログアウト処理</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.1 セッションを削除する</t>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.2 ホーム画面に遷移</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.1 inputクラスを実行し「商品名」、「数量」、「単価」を変数に代入</t>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.1 各入力値、item_idをitem_infoの対応したカラムに登録をする</t>
+    <rPh sb="4" eb="8">
+      <t>カクニュウリョクチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -335,7 +446,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -362,6 +473,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -394,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -804,13 +923,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,6 +1028,48 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -877,6 +1079,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -889,107 +1103,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1340,7 +1518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20232BA8-BB16-6747-82B5-FED708D26C98}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1363,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -1371,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -1379,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -1387,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -1395,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -1403,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -1411,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -1458,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEDF734-8584-402C-AB7C-80DD1E58E362}">
-  <dimension ref="B1:AC29"/>
+  <dimension ref="B1:AC38"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:L29"/>
+    <sheetView topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1472,72 +1650,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22">
+      <c r="B3" s="40">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1571,286 +1749,1015 @@
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C7" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
       <c r="AC7" s="6"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="65"/>
       <c r="AC8" s="6"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C9" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
       <c r="AC9" s="6"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C10" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
       <c r="AC10" s="6"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
       <c r="AC11" s="6"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C12" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
       <c r="AC12" s="6"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="65"/>
       <c r="AC13" s="6"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="65"/>
       <c r="AC14" s="6"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C15" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
       <c r="AC15" s="6"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C16" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
       <c r="AC16" s="6"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
       <c r="AC17" s="6"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C18" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
       <c r="AC18" s="6"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
       <c r="AC19" s="6"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
       <c r="AC20" s="6"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="C21" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
       <c r="AC21" s="6"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C22" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
       <c r="AC22" s="6"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
       <c r="AC23" s="6"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="6"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B25" s="5"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="AC24" s="6"/>
-    </row>
-    <row r="25" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="6"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="6"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B27" s="5"/>
+      <c r="C27" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="6"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B28" s="5"/>
+      <c r="C28" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="6"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B29" s="5"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="6"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B30" s="5"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="6"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B31" s="5"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="6"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B32" s="5"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="6"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B33" s="5"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="6"/>
+    </row>
+    <row r="34" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="9"/>
+    </row>
+    <row r="35" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B36" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
+      <c r="O36" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="54"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="B37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="56"/>
+      <c r="O37" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
+      <c r="AA37" s="55"/>
+      <c r="AB37" s="55"/>
+      <c r="AC37" s="56"/>
+    </row>
+    <row r="38" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="45"/>
+      <c r="O38" s="46">
+        <v>1</v>
+      </c>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="9"/>
-    </row>
-    <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="O27" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="27"/>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="O28" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="41"/>
-    </row>
-    <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="11">
-        <v>1</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="42"/>
-      <c r="O29" s="29">
-        <v>1</v>
-      </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="32"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:AC29"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="O27:AC27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:L28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:AC38"/>
+    <mergeCell ref="B36:L36"/>
+    <mergeCell ref="O36:AC36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:L37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:AC37"/>
+    <mergeCell ref="B5:AC5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B5:AC5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1861,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E407BA53-4CDC-4D80-87AB-C229C3ED7E69}">
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:L30"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1873,72 +2780,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22">
+      <c r="B3" s="40">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1972,25 +2879,35 @@
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>1.1000000000000001</v>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="AC7" s="6"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="AC8" s="6"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="AC9" s="6"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="AC10" s="6"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="AC11" s="6"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.4">
@@ -2077,129 +2994,129 @@
     </row>
     <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="O27" s="19" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="O27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="27"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="O28" s="43" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="41"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
     </row>
     <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="44">
+      <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="O29" s="29">
+      <c r="C29" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="32"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
     </row>
     <row r="30" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="11">
         <v>2</v>
       </c>
-      <c r="C30" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="50"/>
+      <c r="C30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2213,12 +3130,12 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="B5:AC5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B5:AC5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2229,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA9F463-A171-4512-AA32-8DA67A95E4C4}">
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:L29"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -2241,74 +3158,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22">
+      <c r="B3" s="40">
         <v>3</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -2451,129 +3366,129 @@
     </row>
     <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="O27" s="19" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="O27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="27"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="O28" s="43" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="41"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
     </row>
     <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="44">
+      <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="O29" s="29">
+      <c r="C29" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="32"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
     </row>
     <row r="30" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="11">
         <v>2</v>
       </c>
-      <c r="C30" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="50"/>
+      <c r="C30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2588,12 +3503,12 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="B5:AC5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B5:AC5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2604,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF8B4E5-89EF-4C42-99C6-CF1A9A32AAC5}">
   <dimension ref="B1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:L29"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -2616,74 +3531,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22">
+      <c r="B3" s="40">
         <v>4</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -2826,110 +3739,110 @@
     </row>
     <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="O27" s="19" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="O27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="27"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="O28" s="43" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="41"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
     </row>
     <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="11">
         <v>1</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="42"/>
-      <c r="O29" s="29">
+      <c r="C29" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="32"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2944,12 +3857,12 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="B5:AC5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B5:AC5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2960,7 +3873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385255F4-F77C-43D6-AC63-A7CF12438DFF}">
   <dimension ref="B1:AC32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -2972,68 +3885,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22">
+      <c r="B3" s="40">
         <v>5</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -3176,167 +4089,167 @@
     </row>
     <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="O27" s="19" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="O27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="27"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="O28" s="43" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="41"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
     </row>
     <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="44">
+      <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="O29" s="29">
+      <c r="C29" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="32"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B30" s="44">
+      <c r="B30" s="19">
         <v>2</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="54"/>
+      <c r="C30" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B31" s="44">
+      <c r="B31" s="19">
         <v>3</v>
       </c>
-      <c r="C31" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="54"/>
+      <c r="C31" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="11">
         <v>4</v>
       </c>
-      <c r="C32" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="50"/>
+      <c r="C32" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3350,12 +4263,12 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="B5:AC5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B5:AC5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3378,68 +4291,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22">
+      <c r="B3" s="40">
         <v>6</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -3582,167 +4495,167 @@
     </row>
     <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="O27" s="19" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="O27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="27"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="O28" s="43" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="41"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
     </row>
     <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="44">
+      <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="O29" s="29">
+      <c r="C29" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="32"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B30" s="44">
+      <c r="B30" s="19">
         <v>2</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="54"/>
+      <c r="C30" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B31" s="44">
+      <c r="B31" s="19">
         <v>3</v>
       </c>
-      <c r="C31" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="54"/>
+      <c r="C31" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="11">
         <v>4</v>
       </c>
-      <c r="C32" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="50"/>
+      <c r="C32" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3756,12 +4669,12 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="B5:AC5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B5:AC5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3772,8 +4685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BE06BC-9C5A-4642-B56C-BD584BAE0560}">
   <dimension ref="B1:AC31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:L31"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -3784,68 +4697,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22">
+      <c r="B3" s="40">
         <v>7</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="21"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -3988,178 +4901,178 @@
     </row>
     <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="O27" s="19" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="O27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="27"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="O28" s="43" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="41"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
     </row>
     <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="44">
+      <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="O29" s="29">
+      <c r="C29" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="32"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B30" s="44">
+      <c r="B30" s="19">
         <v>2</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="54"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
+      <c r="C30" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="27"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
     </row>
     <row r="31" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="11">
         <v>3</v>
       </c>
-      <c r="C31" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="58"/>
+      <c r="C31" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="31"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
+      <c r="F31" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4173,12 +5086,12 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="B5:AC5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B5:AC5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4186,14 +5099,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="436f65e6-92c3-4ce0-9d5a-03c6538d784a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010083E3EA1F6C6999498BD59C91F5E2ACEB" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c853c533a70891e438aa75076d718011">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="436f65e6-92c3-4ce0-9d5a-03c6538d784a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d76ff3f800455b03e25596942628c9ba" ns2:_="">
     <xsd:import namespace="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
@@ -4343,7 +5248,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4352,17 +5257,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D1D5DD-2C4E-45C4-912F-A0D280AEF2A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="436f65e6-92c3-4ce0-9d5a-03c6538d784a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAAFC891-BD93-40DA-8C31-6F8338606478}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4380,10 +5283,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8895C82-FBE0-4AEC-9089-57D391AB5E22}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D1D5DD-2C4E-45C4-912F-A0D280AEF2A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/texts/処理定義書.xlsx
+++ b/texts/処理定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonbi\OneDrive\ドキュメント\tech\4th\team_dev\texts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467AA8BA-E96A-415D-BAF8-AB1EDFEB428F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A30AAF0-0338-45F5-881D-87C5503C51D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{4F02A500-78F9-674E-9F23-63E79DB4A05D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{4F02A500-78F9-674E-9F23-63E79DB4A05D}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="3" r:id="rId1"/>
@@ -429,7 +429,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.1 各入力値、item_idをitem_infoの対応したカラムに登録をする</t>
+    <t>1.1 各入力値、item_idをitem_infoの対応したカラムに登録をする。Stock_quantに入力値「数量」を登録</t>
     <rPh sb="4" eb="8">
       <t>カクニュウリョクチ</t>
     </rPh>
@@ -437,6 +437,15 @@
       <t>タイオウ</t>
     </rPh>
     <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -970,7 +979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,9 +1079,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1097,66 +1148,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1165,9 +1174,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1650,68 +1656,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="40">
+      <c r="B3" s="54">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="35"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="49"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -1749,856 +1755,172 @@
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
       <c r="AC7" s="6"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
       <c r="AC8" s="6"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B9" s="5"/>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
       <c r="AC9" s="6"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B10" s="5"/>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
       <c r="AC10" s="6"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
       <c r="AC11" s="6"/>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B12" s="5"/>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
       <c r="AC12" s="6"/>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B13" s="5"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
       <c r="AC13" s="6"/>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="65"/>
       <c r="AC14" s="6"/>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
       <c r="AC15" s="6"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
       <c r="AC16" s="6"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
       <c r="AC17" s="6"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
-      <c r="C18" s="65" t="s">
+      <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
       <c r="AC18" s="6"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
       <c r="AC19" s="6"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
       <c r="AC20" s="6"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
       <c r="AC21" s="6"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
       <c r="AC22" s="6"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
       <c r="AC23" s="6"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
       <c r="AC24" s="6"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
       <c r="AC25" s="6"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="65"/>
       <c r="AC26" s="6"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
       <c r="AC27" s="6"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="65"/>
-      <c r="AA28" s="65"/>
-      <c r="AB28" s="65"/>
       <c r="AC28" s="6"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="65"/>
       <c r="AC29" s="6"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="65"/>
       <c r="AC30" s="6"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
       <c r="AC31" s="6"/>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="65"/>
-      <c r="AB32" s="65"/>
       <c r="AC32" s="6"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="65"/>
-      <c r="AB33" s="65"/>
       <c r="AC33" s="6"/>
     </row>
     <row r="34" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -2633,115 +1955,121 @@
     </row>
     <row r="35" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="52"/>
-      <c r="O36" s="33" t="s">
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="41"/>
+      <c r="O36" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="54"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="44"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55" t="s">
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="56"/>
-      <c r="O37" s="57" t="s">
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="46"/>
+      <c r="O37" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55" t="s">
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="56"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="46"/>
     </row>
     <row r="38" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="11">
         <v>1</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="45"/>
-      <c r="O38" s="46">
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="34"/>
+      <c r="O38" s="35">
         <v>1</v>
       </c>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="48" t="s">
+      <c r="P38" s="36"/>
+      <c r="Q38" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="48"/>
-      <c r="AC38" s="49"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:AC5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="F38:L38"/>
     <mergeCell ref="O38:P38"/>
@@ -2752,12 +2080,6 @@
     <mergeCell ref="F37:L37"/>
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="Q37:AC37"/>
-    <mergeCell ref="B5:AC5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2768,7 +2090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E407BA53-4CDC-4D80-87AB-C229C3ED7E69}">
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2780,68 +2102,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="40">
+      <c r="B3" s="54">
         <v>2</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="35"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="49"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -2994,74 +2316,74 @@
     </row>
     <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="O27" s="33" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+      <c r="O27" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="54"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55" t="s">
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
-      <c r="O28" s="57" t="s">
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="O28" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55" t="s">
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="56"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="46"/>
     </row>
     <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="19">
@@ -3081,23 +2403,23 @@
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
       <c r="L29" s="59"/>
-      <c r="O29" s="46">
+      <c r="O29" s="35">
         <v>1</v>
       </c>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="49"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="38"/>
     </row>
     <row r="30" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="11">
@@ -3120,6 +2442,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:AC5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="O29:P29"/>
@@ -3130,12 +2458,6 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
-    <mergeCell ref="B5:AC5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3146,7 +2468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA9F463-A171-4512-AA32-8DA67A95E4C4}">
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3158,35 +2480,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="40">
+      <c r="B3" s="54">
         <v>3</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D4" s="62"/>
@@ -3194,36 +2516,36 @@
       <c r="F4" s="64"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="35"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="49"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -3366,74 +2688,74 @@
     </row>
     <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="O27" s="33" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+      <c r="O27" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="54"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55" t="s">
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
-      <c r="O28" s="57" t="s">
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="O28" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55" t="s">
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="56"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="46"/>
     </row>
     <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="19">
@@ -3453,23 +2775,23 @@
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
       <c r="L29" s="59"/>
-      <c r="O29" s="46">
+      <c r="O29" s="35">
         <v>1</v>
       </c>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="49"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="38"/>
     </row>
     <row r="30" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="11">
@@ -3492,6 +2814,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="O29:P29"/>
@@ -3504,11 +2831,6 @@
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
     <mergeCell ref="B5:AC5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3531,35 +2853,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="40">
+      <c r="B3" s="54">
         <v>4</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D4" s="62"/>
@@ -3567,36 +2889,36 @@
       <c r="F4" s="64"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="35"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="49"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -3739,113 +3061,118 @@
     </row>
     <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="O27" s="33" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+      <c r="O27" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="54"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55" t="s">
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
-      <c r="O28" s="57" t="s">
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="O28" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55" t="s">
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="56"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="46"/>
     </row>
     <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="11">
         <v>1</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44" t="s">
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
-      <c r="O29" s="46">
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="34"/>
+      <c r="O29" s="35">
         <v>1</v>
       </c>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="49"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="O29:P29"/>
@@ -3858,11 +3185,6 @@
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
     <mergeCell ref="B5:AC5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3885,68 +3207,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="40">
+      <c r="B3" s="54">
         <v>5</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="35"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="49"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -4089,74 +3411,74 @@
     </row>
     <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="O27" s="33" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+      <c r="O27" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="54"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55" t="s">
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
-      <c r="O28" s="57" t="s">
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="O28" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55" t="s">
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="56"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="46"/>
     </row>
     <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="19">
@@ -4176,23 +3498,23 @@
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
       <c r="L29" s="59"/>
-      <c r="O29" s="46">
+      <c r="O29" s="35">
         <v>1</v>
       </c>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="49"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="38"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B30" s="19">
@@ -4253,6 +3575,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:AC5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="O29:P29"/>
@@ -4263,12 +3591,6 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
-    <mergeCell ref="B5:AC5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4291,68 +3613,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="40">
+      <c r="B3" s="54">
         <v>6</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="35"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="49"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -4495,74 +3817,74 @@
     </row>
     <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="O27" s="33" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+      <c r="O27" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="54"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55" t="s">
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
-      <c r="O28" s="57" t="s">
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="O28" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55" t="s">
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="56"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="46"/>
     </row>
     <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="19">
@@ -4582,23 +3904,23 @@
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
       <c r="L29" s="59"/>
-      <c r="O29" s="46">
+      <c r="O29" s="35">
         <v>1</v>
       </c>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="49"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="38"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B30" s="19">
@@ -4659,6 +3981,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:AC5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="O29:P29"/>
@@ -4669,12 +3997,6 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
-    <mergeCell ref="B5:AC5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4697,68 +4019,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="40">
+      <c r="B3" s="54">
         <v>7</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="35"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="49"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -4901,74 +4223,74 @@
     </row>
     <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="O27" s="33" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+      <c r="O27" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="54"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55" t="s">
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="56"/>
-      <c r="O28" s="57" t="s">
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="O28" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55" t="s">
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="56"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="46"/>
     </row>
     <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="19">
@@ -4988,23 +4310,23 @@
       <c r="J29" s="58"/>
       <c r="K29" s="58"/>
       <c r="L29" s="59"/>
-      <c r="O29" s="46">
+      <c r="O29" s="35">
         <v>1</v>
       </c>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="48"/>
-      <c r="AC29" s="49"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="38"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B30" s="19">
@@ -5076,6 +4398,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:AC5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="O29:P29"/>
@@ -5086,12 +4414,6 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
-    <mergeCell ref="B5:AC5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5099,6 +4421,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="436f65e6-92c3-4ce0-9d5a-03c6538d784a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010083E3EA1F6C6999498BD59C91F5E2ACEB" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c853c533a70891e438aa75076d718011">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="436f65e6-92c3-4ce0-9d5a-03c6538d784a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d76ff3f800455b03e25596942628c9ba" ns2:_="">
     <xsd:import namespace="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
@@ -5248,24 +4587,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D1D5DD-2C4E-45C4-912F-A0D280AEF2A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="436f65e6-92c3-4ce0-9d5a-03c6538d784a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8895C82-FBE0-4AEC-9089-57D391AB5E22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAAFC891-BD93-40DA-8C31-6F8338606478}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5281,22 +4621,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8895C82-FBE0-4AEC-9089-57D391AB5E22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D1D5DD-2C4E-45C4-912F-A0D280AEF2A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/texts/処理定義書.xlsx
+++ b/texts/処理定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonbi\OneDrive\ドキュメント\tech\4th\team_dev\texts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eule/Desktop/Team_Development/Team-Development/texts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A30AAF0-0338-45F5-881D-87C5503C51D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CD025A-3D47-1A42-A5D6-8D47C7BA0660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{4F02A500-78F9-674E-9F23-63E79DB4A05D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{4F02A500-78F9-674E-9F23-63E79DB4A05D}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="67">
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
@@ -448,6 +448,38 @@
     <rPh sb="61" eb="63">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.一覧表示処理</t>
+    <rPh sb="2" eb="8">
+      <t xml:space="preserve">イチランヒョウジショリ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.2 データを元に表を出力</t>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ヒョウヲ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">シュツリョク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.セッションスコープ削除処理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.1 画面遷移する際、セッションスコープを削除</t>
+    <rPh sb="4" eb="8">
+      <t xml:space="preserve">ガメンセンイスルサイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.1 item_info、stock_infoからデータを取得</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -455,7 +487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1079,6 +1111,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1106,9 +1171,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1124,34 +1186,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,12 +1197,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1513,7 +1545,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1528,13 +1560,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1550,7 +1582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1558,7 +1590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1566,7 +1598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1574,7 +1606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1582,7 +1614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1590,7 +1622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1598,39 +1630,39 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
     </row>
-    <row r="17" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="21" thickBot="1">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
     </row>
@@ -1644,82 +1676,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEDF734-8584-402C-AB7C-80DD1E58E362}">
   <dimension ref="B1:AC38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="37" width="4.33203125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.6640625" style="1"/>
+    <col min="2" max="37" width="4.28515625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:29">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="54">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="2:29" ht="21" thickBot="1">
+      <c r="B3" s="40">
         <v>1</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-    </row>
-    <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="42" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+    </row>
+    <row r="4" spans="2:29" ht="21" thickBot="1"/>
+    <row r="5" spans="2:29">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="49"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
+    </row>
+    <row r="6" spans="2:29">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1751,7 +1783,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:29">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1760,170 +1792,170 @@
       </c>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:29">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:29">
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AC9" s="6"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:29">
       <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:29">
       <c r="B11" s="5"/>
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AC11" s="6"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:29">
       <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:29">
       <c r="B13" s="5"/>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AC13" s="6"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:29">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:29">
       <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AC15" s="6"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:29">
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:29">
       <c r="B17" s="5"/>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AC17" s="6"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:29">
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:29">
       <c r="B19" s="5"/>
       <c r="D19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AC19" s="6"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:29">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:29">
       <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AC21" s="6"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:29">
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:29">
       <c r="B23" s="5"/>
       <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AC23" s="6"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:29">
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:29">
       <c r="B25" s="5"/>
       <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AC25" s="6"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:29">
       <c r="B26" s="5" t="s">
         <v>57</v>
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:29">
       <c r="B27" s="5"/>
       <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AC27" s="6"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:29">
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC28" s="6"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:29">
       <c r="B29" s="5"/>
       <c r="AC29" s="6"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:29">
       <c r="B30" s="5"/>
       <c r="AC30" s="6"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:29">
       <c r="B31" s="5"/>
       <c r="AC31" s="6"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:29">
       <c r="B32" s="5"/>
       <c r="AC32" s="6"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:29">
       <c r="B33" s="5"/>
       <c r="AC33" s="6"/>
     </row>
-    <row r="34" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:29" ht="21" thickBot="1">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1953,123 +1985,117 @@
       <c r="AB34" s="8"/>
       <c r="AC34" s="9"/>
     </row>
-    <row r="35" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B36" s="39" t="s">
+    <row r="35" spans="2:29" ht="21" thickBot="1"/>
+    <row r="36" spans="2:29">
+      <c r="B36" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="41"/>
-      <c r="O36" s="42" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
+      <c r="O36" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="43"/>
-      <c r="AC36" s="44"/>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="53"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="54"/>
+    </row>
+    <row r="37" spans="2:29">
       <c r="B37" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45" t="s">
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
-      <c r="O37" s="47" t="s">
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="56"/>
+      <c r="O37" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45" t="s">
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="46"/>
-    </row>
-    <row r="38" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
+      <c r="AA37" s="55"/>
+      <c r="AB37" s="55"/>
+      <c r="AC37" s="56"/>
+    </row>
+    <row r="38" spans="2:29" ht="21" thickBot="1">
       <c r="B38" s="11">
         <v>1</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33" t="s">
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="34"/>
-      <c r="O38" s="35">
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="45"/>
+      <c r="O38" s="46">
         <v>1</v>
       </c>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="37" t="s">
+      <c r="P38" s="47"/>
+      <c r="Q38" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="38"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:AC5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="F38:L38"/>
     <mergeCell ref="O38:P38"/>
@@ -2080,6 +2106,12 @@
     <mergeCell ref="F37:L37"/>
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="Q37:AC37"/>
+    <mergeCell ref="B5:AC5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2090,82 +2122,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E407BA53-4CDC-4D80-87AB-C229C3ED7E69}">
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="37" width="4.33203125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.6640625" style="1"/>
+    <col min="2" max="37" width="4.28515625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:29">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="54">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="2:29" ht="21" thickBot="1">
+      <c r="B3" s="40">
         <v>2</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-    </row>
-    <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="42" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="2:29" ht="21" thickBot="1"/>
+    <row r="5" spans="2:29">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="49"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
+    </row>
+    <row r="6" spans="2:29">
       <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
@@ -2197,7 +2229,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:29">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2206,85 +2238,85 @@
       </c>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:29">
       <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:29">
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AC9" s="6"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:29">
       <c r="B10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:29">
       <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AC11" s="6"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:29">
       <c r="B12" s="5"/>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:29">
       <c r="B13" s="5"/>
       <c r="AC13" s="6"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:29">
       <c r="B14" s="5"/>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:29">
       <c r="B15" s="5"/>
       <c r="AC15" s="6"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:29">
       <c r="B16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:29">
       <c r="B17" s="5"/>
       <c r="AC17" s="6"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:29">
       <c r="B18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:29">
       <c r="B19" s="5"/>
       <c r="AC19" s="6"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:29">
       <c r="B20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:29">
       <c r="B21" s="5"/>
       <c r="AC21" s="6"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:29">
       <c r="B22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:29">
       <c r="B23" s="5"/>
       <c r="AC23" s="6"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:29">
       <c r="B24" s="5"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:29" ht="21" thickBot="1">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2314,114 +2346,114 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="39" t="s">
+    <row r="26" spans="2:29" ht="21" thickBot="1"/>
+    <row r="27" spans="2:29">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="O27" s="42" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="O27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="44"/>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="O28" s="47" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="46"/>
-    </row>
-    <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
+    </row>
+    <row r="29" spans="2:29" ht="21" thickBot="1">
       <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="O29" s="35">
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="38"/>
-    </row>
-    <row r="30" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
+    </row>
+    <row r="30" spans="2:29" ht="21" thickBot="1">
       <c r="B30" s="11">
         <v>2</v>
       </c>
@@ -2442,12 +2474,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:AC5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="O29:P29"/>
@@ -2458,6 +2484,12 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="B5:AC5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2468,88 +2500,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA9F463-A171-4512-AA32-8DA67A95E4C4}">
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="37" width="4.33203125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.6640625" style="1"/>
+    <col min="2" max="37" width="4.28515625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:29">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="54">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="2:29" ht="21" thickBot="1">
+      <c r="B3" s="40">
         <v>3</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-    </row>
-    <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="2:29" ht="21" thickBot="1">
       <c r="D4" s="62"/>
       <c r="E4" s="63"/>
       <c r="F4" s="64"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="2:29">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="49"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
+    </row>
+    <row r="6" spans="2:29">
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2579,84 +2611,92 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:29">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>1.1000000000000001</v>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:29">
       <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
+    <row r="9" spans="2:29">
+      <c r="B9" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="AC9" s="6"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:29">
       <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:29">
       <c r="B11" s="5"/>
       <c r="AC11" s="6"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:29">
       <c r="B12" s="5"/>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:29">
       <c r="B13" s="5"/>
       <c r="AC13" s="6"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:29">
       <c r="B14" s="5"/>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:29">
       <c r="B15" s="5"/>
       <c r="AC15" s="6"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:29">
       <c r="B16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:29">
       <c r="B17" s="5"/>
       <c r="AC17" s="6"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:29">
       <c r="B18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:29">
       <c r="B19" s="5"/>
       <c r="AC19" s="6"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:29">
       <c r="B20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:29">
       <c r="B21" s="5"/>
       <c r="AC21" s="6"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:29">
       <c r="B22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:29">
       <c r="B23" s="5"/>
       <c r="AC23" s="6"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:29">
       <c r="B24" s="5"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:29" ht="21" thickBot="1">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2686,114 +2726,114 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="39" t="s">
+    <row r="26" spans="2:29" ht="21" thickBot="1"/>
+    <row r="27" spans="2:29">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="O27" s="42" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="O27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="44"/>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="O28" s="47" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="46"/>
-    </row>
-    <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
+    </row>
+    <row r="29" spans="2:29" ht="21" thickBot="1">
       <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="O29" s="35">
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="38"/>
-    </row>
-    <row r="30" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
+    </row>
+    <row r="30" spans="2:29" ht="21" thickBot="1">
       <c r="B30" s="11">
         <v>2</v>
       </c>
@@ -2814,11 +2854,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="O29:P29"/>
@@ -2831,6 +2866,11 @@
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
     <mergeCell ref="B5:AC5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2845,82 +2885,82 @@
       <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="37" width="4.33203125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.6640625" style="1"/>
+    <col min="2" max="37" width="4.28515625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:29">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="54">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="2:29" ht="21" thickBot="1">
+      <c r="B3" s="40">
         <v>4</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-    </row>
-    <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="2:29" ht="21" thickBot="1">
       <c r="D4" s="62"/>
       <c r="E4" s="63"/>
       <c r="F4" s="64"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="2:29">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="49"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
+    </row>
+    <row r="6" spans="2:29">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2952,7 +2992,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:29">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -2961,75 +3001,75 @@
       </c>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:29">
       <c r="B8" s="5"/>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:29">
       <c r="B9" s="5"/>
       <c r="AC9" s="6"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:29">
       <c r="B10" s="5"/>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:29">
       <c r="B11" s="5"/>
       <c r="AC11" s="6"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:29">
       <c r="B12" s="5"/>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:29">
       <c r="B13" s="5"/>
       <c r="AC13" s="6"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:29">
       <c r="B14" s="5"/>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:29">
       <c r="B15" s="5"/>
       <c r="AC15" s="6"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:29">
       <c r="B16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:29">
       <c r="B17" s="5"/>
       <c r="AC17" s="6"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:29">
       <c r="B18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:29">
       <c r="B19" s="5"/>
       <c r="AC19" s="6"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:29">
       <c r="B20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:29">
       <c r="B21" s="5"/>
       <c r="AC21" s="6"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:29">
       <c r="B22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:29">
       <c r="B23" s="5"/>
       <c r="AC23" s="6"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:29">
       <c r="B24" s="5"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:29" ht="21" thickBot="1">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3059,120 +3099,115 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="39" t="s">
+    <row r="26" spans="2:29" ht="21" thickBot="1"/>
+    <row r="27" spans="2:29">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="O27" s="42" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="O27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="44"/>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="O28" s="47" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="46"/>
-    </row>
-    <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
+    </row>
+    <row r="29" spans="2:29" ht="21" thickBot="1">
       <c r="B29" s="11">
         <v>1</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="34"/>
-      <c r="O29" s="35">
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="38"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="O29:P29"/>
@@ -3185,6 +3220,11 @@
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
     <mergeCell ref="B5:AC5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3199,78 +3239,78 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="37" width="4.33203125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.6640625" style="1"/>
+    <col min="2" max="37" width="4.28515625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:29">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="54">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="2:29" ht="21" thickBot="1">
+      <c r="B3" s="40">
         <v>5</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-    </row>
-    <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="42" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="2:29" ht="21" thickBot="1"/>
+    <row r="5" spans="2:29">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="49"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
+    </row>
+    <row r="6" spans="2:29">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3302,7 +3342,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:29">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3311,75 +3351,75 @@
       </c>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:29">
       <c r="B8" s="5"/>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:29">
       <c r="B9" s="5"/>
       <c r="AC9" s="6"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:29">
       <c r="B10" s="5"/>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:29">
       <c r="B11" s="5"/>
       <c r="AC11" s="6"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:29">
       <c r="B12" s="5"/>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:29">
       <c r="B13" s="5"/>
       <c r="AC13" s="6"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:29">
       <c r="B14" s="5"/>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:29">
       <c r="B15" s="5"/>
       <c r="AC15" s="6"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:29">
       <c r="B16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:29">
       <c r="B17" s="5"/>
       <c r="AC17" s="6"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:29">
       <c r="B18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:29">
       <c r="B19" s="5"/>
       <c r="AC19" s="6"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:29">
       <c r="B20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:29">
       <c r="B21" s="5"/>
       <c r="AC21" s="6"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:29">
       <c r="B22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:29">
       <c r="B23" s="5"/>
       <c r="AC23" s="6"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:29">
       <c r="B24" s="5"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:29" ht="21" thickBot="1">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3409,114 +3449,114 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="39" t="s">
+    <row r="26" spans="2:29" ht="21" thickBot="1"/>
+    <row r="27" spans="2:29">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="O27" s="42" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="O27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="44"/>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="O28" s="47" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="46"/>
-    </row>
-    <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
+    </row>
+    <row r="29" spans="2:29" ht="21" thickBot="1">
       <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="O29" s="35">
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="38"/>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
+    </row>
+    <row r="30" spans="2:29">
       <c r="B30" s="19">
         <v>2</v>
       </c>
@@ -3535,7 +3575,7 @@
       <c r="K30" s="25"/>
       <c r="L30" s="27"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:29">
       <c r="B31" s="19">
         <v>3</v>
       </c>
@@ -3554,7 +3594,7 @@
       <c r="K31" s="25"/>
       <c r="L31" s="27"/>
     </row>
-    <row r="32" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:29" ht="21" thickBot="1">
       <c r="B32" s="11">
         <v>4</v>
       </c>
@@ -3575,12 +3615,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:AC5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="O29:P29"/>
@@ -3591,6 +3625,12 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="B5:AC5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3605,78 +3645,78 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="37" width="4.33203125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.6640625" style="1"/>
+    <col min="2" max="37" width="4.28515625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:29">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="54">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="2:29" ht="21" thickBot="1">
+      <c r="B3" s="40">
         <v>6</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-    </row>
-    <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="42" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="2:29" ht="21" thickBot="1"/>
+    <row r="5" spans="2:29">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="49"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
+    </row>
+    <row r="6" spans="2:29">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3708,7 +3748,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:29">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3717,75 +3757,75 @@
       </c>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:29">
       <c r="B8" s="5"/>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:29">
       <c r="B9" s="5"/>
       <c r="AC9" s="6"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:29">
       <c r="B10" s="5"/>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:29">
       <c r="B11" s="5"/>
       <c r="AC11" s="6"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:29">
       <c r="B12" s="5"/>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:29">
       <c r="B13" s="5"/>
       <c r="AC13" s="6"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:29">
       <c r="B14" s="5"/>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:29">
       <c r="B15" s="5"/>
       <c r="AC15" s="6"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:29">
       <c r="B16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:29">
       <c r="B17" s="5"/>
       <c r="AC17" s="6"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:29">
       <c r="B18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:29">
       <c r="B19" s="5"/>
       <c r="AC19" s="6"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:29">
       <c r="B20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:29">
       <c r="B21" s="5"/>
       <c r="AC21" s="6"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:29">
       <c r="B22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:29">
       <c r="B23" s="5"/>
       <c r="AC23" s="6"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:29">
       <c r="B24" s="5"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:29" ht="21" thickBot="1">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3815,114 +3855,114 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="39" t="s">
+    <row r="26" spans="2:29" ht="21" thickBot="1"/>
+    <row r="27" spans="2:29">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="O27" s="42" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="O27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="44"/>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="O28" s="47" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="46"/>
-    </row>
-    <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
+    </row>
+    <row r="29" spans="2:29" ht="21" thickBot="1">
       <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="O29" s="35">
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="38"/>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
+    </row>
+    <row r="30" spans="2:29">
       <c r="B30" s="19">
         <v>2</v>
       </c>
@@ -3941,7 +3981,7 @@
       <c r="K30" s="25"/>
       <c r="L30" s="27"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:29">
       <c r="B31" s="19">
         <v>3</v>
       </c>
@@ -3960,7 +4000,7 @@
       <c r="K31" s="25"/>
       <c r="L31" s="27"/>
     </row>
-    <row r="32" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:29" ht="21" thickBot="1">
       <c r="B32" s="11">
         <v>4</v>
       </c>
@@ -3981,12 +4021,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:AC5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="O29:P29"/>
@@ -3997,6 +4031,12 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="B5:AC5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4011,78 +4051,78 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="37" width="4.33203125" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.6640625" style="1"/>
+    <col min="2" max="37" width="4.28515625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:29">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="54">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="2:29" ht="21" thickBot="1">
+      <c r="B3" s="40">
         <v>7</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-    </row>
-    <row r="4" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B5" s="42" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="2:29" ht="21" thickBot="1"/>
+    <row r="5" spans="2:29">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="49"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="35"/>
+    </row>
+    <row r="6" spans="2:29">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -4114,7 +4154,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:29">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -4123,75 +4163,75 @@
       </c>
       <c r="AC7" s="6"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:29">
       <c r="B8" s="5"/>
       <c r="AC8" s="6"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:29">
       <c r="B9" s="5"/>
       <c r="AC9" s="6"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:29">
       <c r="B10" s="5"/>
       <c r="AC10" s="6"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:29">
       <c r="B11" s="5"/>
       <c r="AC11" s="6"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:29">
       <c r="B12" s="5"/>
       <c r="AC12" s="6"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:29">
       <c r="B13" s="5"/>
       <c r="AC13" s="6"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:29">
       <c r="B14" s="5"/>
       <c r="AC14" s="6"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:29">
       <c r="B15" s="5"/>
       <c r="AC15" s="6"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:29">
       <c r="B16" s="5"/>
       <c r="AC16" s="6"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:29">
       <c r="B17" s="5"/>
       <c r="AC17" s="6"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:29">
       <c r="B18" s="5"/>
       <c r="AC18" s="6"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:29">
       <c r="B19" s="5"/>
       <c r="AC19" s="6"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:29">
       <c r="B20" s="5"/>
       <c r="AC20" s="6"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:29">
       <c r="B21" s="5"/>
       <c r="AC21" s="6"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:29">
       <c r="B22" s="5"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:29">
       <c r="B23" s="5"/>
       <c r="AC23" s="6"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:29">
       <c r="B24" s="5"/>
       <c r="AC24" s="6"/>
     </row>
-    <row r="25" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:29" ht="21" thickBot="1">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -4221,114 +4261,114 @@
       <c r="AB25" s="8"/>
       <c r="AC25" s="9"/>
     </row>
-    <row r="26" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="B27" s="39" t="s">
+    <row r="26" spans="2:29" ht="21" thickBot="1"/>
+    <row r="27" spans="2:29">
+      <c r="B27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="O27" s="42" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+      <c r="O27" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="44"/>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="54"/>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="O28" s="47" t="s">
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45" t="s">
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="46"/>
-    </row>
-    <row r="29" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
+    </row>
+    <row r="29" spans="2:29" ht="21" thickBot="1">
       <c r="B29" s="19">
         <v>1</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="O29" s="35">
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="38"/>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="P29" s="47"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="49"/>
+    </row>
+    <row r="30" spans="2:29">
       <c r="B30" s="19">
         <v>2</v>
       </c>
@@ -4362,7 +4402,7 @@
       <c r="AB30" s="29"/>
       <c r="AC30" s="29"/>
     </row>
-    <row r="31" spans="2:29" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:29" ht="21" thickBot="1">
       <c r="B31" s="11">
         <v>3</v>
       </c>
@@ -4398,12 +4438,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:AC5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="O29:P29"/>
@@ -4414,6 +4448,12 @@
     <mergeCell ref="F28:L28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:AC28"/>
+    <mergeCell ref="B5:AC5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4421,23 +4461,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="436f65e6-92c3-4ce0-9d5a-03c6538d784a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010083E3EA1F6C6999498BD59C91F5E2ACEB" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c853c533a70891e438aa75076d718011">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="436f65e6-92c3-4ce0-9d5a-03c6538d784a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d76ff3f800455b03e25596942628c9ba" ns2:_="">
     <xsd:import namespace="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
@@ -4587,25 +4610,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D1D5DD-2C4E-45C4-912F-A0D280AEF2A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8895C82-FBE0-4AEC-9089-57D391AB5E22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="436f65e6-92c3-4ce0-9d5a-03c6538d784a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAAFC891-BD93-40DA-8C31-6F8338606478}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4621,4 +4643,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8895C82-FBE0-4AEC-9089-57D391AB5E22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79D1D5DD-2C4E-45C4-912F-A0D280AEF2A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>